--- a/uploads/MultiCoursesReport.xlsx
+++ b/uploads/MultiCoursesReport.xlsx
@@ -37,7 +37,7 @@
     <font>
       <sz val="10.0"/>
       <color rgb="000000"/>
-      <name val="ArialFontCustom"/>
+      <name val="Arial"/>
       <b val="false"/>
       <i val="false"/>
       <u val="none"/>
@@ -154,7 +154,7 @@
     <col min="1" max="1" customWidth="1" width="16.666666"/>
     <col min="2" max="2" customWidth="1" width="16.666666"/>
     <col min="3" max="3" customWidth="1" width="16.666666"/>
-    <col min="4" max="4" customWidth="1" width="16.666666"/>
+    <col min="4" max="4" customWidth="1" width="23.333334"/>
     <col min="5" max="5" customWidth="1" width="16.666666"/>
     <col min="6" max="6" customWidth="1" width="16.666666"/>
     <col min="7" max="7" customWidth="1" width="16.666666"/>
